--- a/initial_solution/VRPTW_LuisaMariaAlvarez_constructive.xlsx
+++ b/initial_solution/VRPTW_LuisaMariaAlvarez_constructive.xlsx
@@ -587,7 +587,7 @@
         <v>2711.296</v>
       </c>
       <c r="C1" t="n">
-        <v>62.391</v>
+        <v>57.849</v>
       </c>
     </row>
     <row r="2">
@@ -1757,7 +1757,7 @@
         <v>2468.243</v>
       </c>
       <c r="C1" t="n">
-        <v>92.553</v>
+        <v>47.91</v>
       </c>
     </row>
     <row r="2">
@@ -2687,7 +2687,7 @@
         <v>612.197</v>
       </c>
       <c r="C1" t="n">
-        <v>15.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
@@ -3067,7 +3067,7 @@
         <v>947.158</v>
       </c>
       <c r="C1" t="n">
-        <v>15.54</v>
+        <v>15.542</v>
       </c>
     </row>
     <row r="2">
@@ -3847,7 +3847,7 @@
         <v>859.181</v>
       </c>
       <c r="C1" t="n">
-        <v>0</v>
+        <v>15.619</v>
       </c>
     </row>
     <row r="2">
@@ -4207,7 +4207,7 @@
         <v>839.2859999999999</v>
       </c>
       <c r="C1" t="n">
-        <v>15.622</v>
+        <v>16.084</v>
       </c>
     </row>
     <row r="2">
@@ -4487,7 +4487,7 @@
         <v>811.437</v>
       </c>
       <c r="C1" t="n">
-        <v>46.805</v>
+        <v>26.949</v>
       </c>
     </row>
     <row r="2">
@@ -5057,7 +5057,7 @@
         <v>1079.777</v>
       </c>
       <c r="C1" t="n">
-        <v>15.645</v>
+        <v>28.078</v>
       </c>
     </row>
     <row r="2">
@@ -5567,7 +5567,7 @@
         <v>1487.449</v>
       </c>
       <c r="C1" t="n">
-        <v>15.622</v>
+        <v>15.602</v>
       </c>
     </row>
     <row r="2">
@@ -6317,7 +6317,7 @@
         <v>370.233</v>
       </c>
       <c r="C1" t="n">
-        <v>15.929</v>
+        <v>15.642</v>
       </c>
     </row>
     <row r="2">
@@ -6617,7 +6617,7 @@
         <v>1218.356</v>
       </c>
       <c r="C1" t="n">
-        <v>14.562</v>
+        <v>62.641</v>
       </c>
     </row>
     <row r="2">
@@ -7147,7 +7147,7 @@
         <v>1635.534</v>
       </c>
       <c r="C1" t="n">
-        <v>16.59</v>
+        <v>31.211</v>
       </c>
     </row>
     <row r="2">
@@ -7797,7 +7797,7 @@
         <v>1630.627</v>
       </c>
       <c r="C1" t="n">
-        <v>31.261</v>
+        <v>31.149</v>
       </c>
     </row>
     <row r="2">
@@ -8307,7 +8307,7 @@
         <v>1870.696</v>
       </c>
       <c r="C1" t="n">
-        <v>39.621</v>
+        <v>47.265</v>
       </c>
     </row>
     <row r="2">
@@ -9357,7 +9357,7 @@
         <v>1880.467</v>
       </c>
       <c r="C1" t="n">
-        <v>31.108</v>
+        <v>62.882</v>
       </c>
     </row>
     <row r="2">
@@ -10287,7 +10287,7 @@
         <v>2623.247</v>
       </c>
       <c r="C1" t="n">
-        <v>33.747</v>
+        <v>33.963</v>
       </c>
     </row>
     <row r="2">
@@ -11657,7 +11657,7 @@
         <v>1984.957</v>
       </c>
       <c r="C1" t="n">
-        <v>30.019</v>
+        <v>31.147</v>
       </c>
     </row>
     <row r="2">
